--- a/data/strategies/天风场内策略结果.xlsx
+++ b/data/strategies/天风场内策略结果.xlsx
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="185">
+  <si>
+    <t>华宝中证医疗ETF</t>
+  </si>
   <si>
     <t>南方中证申万有色金属ETF</t>
   </si>
@@ -26,9 +29,6 @@
     <t>国泰中证钢铁ETF</t>
   </si>
   <si>
-    <t>华宝中证医疗ETF</t>
-  </si>
-  <si>
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
@@ -62,73 +62,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>5.91%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>29.26%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>20.38%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>25.27%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>22.86%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>28.97%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>11.42%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>24.66%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>31.03%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>27.43%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>23.75%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>28.34%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -137,88 +134,88 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>512170.OF</t>
+  </si>
+  <si>
     <t>512400.OF</t>
   </si>
   <si>
     <t>515210.OF</t>
   </si>
   <si>
-    <t>512170.OF</t>
-  </si>
-  <si>
     <t>515700.OF</t>
   </si>
   <si>
-    <t>-1.05%</t>
-  </si>
-  <si>
-    <t>1.21%</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>14.28%</t>
-  </si>
-  <si>
-    <t>29.60%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>11.38%</t>
-  </si>
-  <si>
-    <t>28.44%</t>
-  </si>
-  <si>
-    <t>17.68%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
-  </si>
-  <si>
-    <t>21.99%</t>
-  </si>
-  <si>
-    <t>27.93%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>31.38%</t>
-  </si>
-  <si>
-    <t>27.56%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>40.13%</t>
+    <t>-3.15%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>2.96%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>13.54%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>4.86%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>10.33%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>30.60%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>38.50%</t>
+  </si>
+  <si>
+    <t>36.60%</t>
+  </si>
+  <si>
+    <t>24.87%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>31.42%</t>
   </si>
   <si>
     <t>33.28%</t>
   </si>
   <si>
-    <t>34.07%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
+    <t>30.64%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>35.18%</t>
+  </si>
+  <si>
+    <t>40.49%</t>
+  </si>
+  <si>
+    <t>32.86%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -233,301 +230,307 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>300015.SZ</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
+  </si>
+  <si>
+    <t>300760.SZ</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>300014.SZ</t>
+  </si>
+  <si>
+    <t>300124.SZ</t>
   </si>
   <si>
     <t>002460.SZ</t>
   </si>
   <si>
-    <t>603259.SH</t>
-  </si>
-  <si>
-    <t>300760.SZ</t>
-  </si>
-  <si>
-    <t>300015.SZ</t>
-  </si>
-  <si>
-    <t>300750.SZ</t>
-  </si>
-  <si>
     <t>603799.SH</t>
   </si>
   <si>
-    <t>300014.SZ</t>
-  </si>
-  <si>
-    <t>300124.SZ</t>
-  </si>
-  <si>
     <t>300347.SZ</t>
   </si>
   <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600019.SH</t>
-  </si>
-  <si>
     <t>600763.SH</t>
   </si>
   <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>600010.SH</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
+    <t>300759.SZ</t>
+  </si>
+  <si>
+    <t>300595.SZ</t>
+  </si>
+  <si>
+    <t>300896.SZ</t>
+  </si>
+  <si>
+    <t>002709.SZ</t>
+  </si>
+  <si>
+    <t>603882.SH</t>
   </si>
   <si>
     <t>300450.SZ</t>
   </si>
   <si>
-    <t>002709.SZ</t>
-  </si>
-  <si>
-    <t>300595.SZ</t>
-  </si>
-  <si>
     <t>300003.SZ</t>
   </si>
   <si>
-    <t>4.30%</t>
-  </si>
-  <si>
-    <t>3.99%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>3.15%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
-  </si>
-  <si>
-    <t>3.11%</t>
-  </si>
-  <si>
-    <t>3.05%</t>
-  </si>
-  <si>
-    <t>2.19%</t>
-  </si>
-  <si>
-    <t>2.09%</t>
-  </si>
-  <si>
-    <t>1.92%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>1.80%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.46%</t>
-  </si>
-  <si>
-    <t>1.26%</t>
-  </si>
-  <si>
-    <t>1.19%</t>
-  </si>
-  <si>
-    <t>1.16%</t>
+    <t>300529.SZ</t>
+  </si>
+  <si>
+    <t>377.59%</t>
+  </si>
+  <si>
+    <t>375.80%</t>
+  </si>
+  <si>
+    <t>343.96%</t>
+  </si>
+  <si>
+    <t>338.65%</t>
+  </si>
+  <si>
+    <t>314.09%</t>
+  </si>
+  <si>
+    <t>236.64%</t>
+  </si>
+  <si>
+    <t>223.38%</t>
+  </si>
+  <si>
+    <t>218.03%</t>
+  </si>
+  <si>
+    <t>184.77%</t>
+  </si>
+  <si>
+    <t>183.91%</t>
+  </si>
+  <si>
+    <t>181.80%</t>
+  </si>
+  <si>
+    <t>165.40%</t>
+  </si>
+  <si>
+    <t>140.68%</t>
+  </si>
+  <si>
+    <t>129.72%</t>
+  </si>
+  <si>
+    <t>125.66%</t>
+  </si>
+  <si>
+    <t>115.60%</t>
+  </si>
+  <si>
+    <t>108.83%</t>
+  </si>
+  <si>
+    <t>107.02%</t>
+  </si>
+  <si>
+    <t>99.59%</t>
+  </si>
+  <si>
+    <t>85.30%</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
   </si>
   <si>
     <t>赣锋锂业</t>
   </si>
   <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
     <t>华友钴业</t>
   </si>
   <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>汇川技术</t>
-  </si>
-  <si>
     <t>泰格医药</t>
   </si>
   <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>宝钢股份</t>
-  </si>
-  <si>
     <t>通策医疗</t>
   </si>
   <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>包钢股份</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
+    <t>康龙化成</t>
+  </si>
+  <si>
+    <t>欧普康视</t>
+  </si>
+  <si>
+    <t>爱美客</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
+    <t>金域医学</t>
   </si>
   <si>
     <t>先导智能</t>
   </si>
   <si>
-    <t>天赐材料</t>
-  </si>
-  <si>
-    <t>欧普康视</t>
-  </si>
-  <si>
     <t>乐普医疗</t>
   </si>
   <si>
+    <t>健帆生物</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>医疗服务-准分子手术</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>生命信息与支持类产品</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>锂离子电池</t>
+  </si>
+  <si>
+    <t>变频器类</t>
+  </si>
+  <si>
     <t>锂系列产品</t>
   </si>
   <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>生命信息与支持类产品</t>
-  </si>
-  <si>
-    <t>医疗服务-准分子手术</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
     <t>其他</t>
   </si>
   <si>
-    <t>锂离子电池</t>
-  </si>
-  <si>
-    <t>变频器类</t>
-  </si>
-  <si>
     <t>临床研究相关咨询服务</t>
   </si>
   <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>其他业务</t>
-  </si>
-  <si>
     <t>医疗服务</t>
   </si>
   <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>板材</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
+    <t>药物发现与研究</t>
+  </si>
+  <si>
+    <t>角膜塑形镜(梦戴维)</t>
+  </si>
+  <si>
+    <t>溶液类注射产品</t>
+  </si>
+  <si>
+    <t>锂离子电池材料产品</t>
+  </si>
+  <si>
+    <t>医学诊断服务</t>
   </si>
   <si>
     <t>锂电池设备</t>
   </si>
   <si>
-    <t>锂离子电池材料产品</t>
-  </si>
-  <si>
-    <t>角膜塑形镜(梦戴维)</t>
-  </si>
-  <si>
     <t>药品-制剂</t>
   </si>
   <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>22.94%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>20.12%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>33.59%</t>
-  </si>
-  <si>
-    <t>49.29%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>35.90%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>76.18%</t>
-  </si>
-  <si>
-    <t>84.17%</t>
-  </si>
-  <si>
-    <t>19.90%</t>
+    <t>一次性使用血液灌流器</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>16.08%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>104.69%</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>32.76%</t>
+  </si>
+  <si>
+    <t>87.65%</t>
+  </si>
+  <si>
+    <t>70.49%</t>
+  </si>
+  <si>
+    <t>119.09%</t>
+  </si>
+  <si>
+    <t>89.06%</t>
+  </si>
+  <si>
+    <t>5.35%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>10.17%</t>
+  </si>
+  <si>
+    <t>25.10%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -545,43 +548,31 @@
     <t>医疗器械</t>
   </si>
   <si>
-    <t>钢铁</t>
-  </si>
-  <si>
     <t xml:space="preserve">锂电池 </t>
   </si>
   <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>36.49%</t>
-  </si>
-  <si>
-    <t>13.11%</t>
-  </si>
-  <si>
-    <t>13.04%</t>
-  </si>
-  <si>
-    <t>10.67%</t>
-  </si>
-  <si>
-    <t>7.65%</t>
-  </si>
-  <si>
-    <t>6.57%</t>
-  </si>
-  <si>
-    <t>4.72%</t>
-  </si>
-  <si>
-    <t>4.14%</t>
-  </si>
-  <si>
-    <t>3.60%</t>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>18.24%</t>
+  </si>
+  <si>
+    <t>11.92%</t>
+  </si>
+  <si>
+    <t>9.53%</t>
+  </si>
+  <si>
+    <t>9.37%</t>
+  </si>
+  <si>
+    <t>5.72%</t>
+  </si>
+  <si>
+    <t>3.38%</t>
+  </si>
+  <si>
+    <t>3.30%</t>
   </si>
 </sst>
 </file>
@@ -945,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,19 +999,19 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>0.9954180985108819</v>
+      </c>
+      <c r="C3">
         <v>1.056768131545464</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.015254787406686</v>
-      </c>
-      <c r="D3">
-        <v>0.9954180985108819</v>
       </c>
       <c r="E3">
         <v>1.07818653347421</v>
       </c>
       <c r="F3">
-        <v>1.036533424776946</v>
+        <v>1.039707295000274</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1034,19 +1025,19 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.014212379619023</v>
+      </c>
+      <c r="C4">
         <v>1.068219633943428</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.006653683868874</v>
-      </c>
-      <c r="D4">
-        <v>1.014212379619023</v>
       </c>
       <c r="E4">
         <v>1.091441744308904</v>
       </c>
       <c r="F4">
-        <v>1.047594324924307</v>
+        <v>1.046384933604283</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1060,19 +1051,19 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.034618811251114</v>
+      </c>
+      <c r="C5">
         <v>1.073407066653616</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.006004543979228</v>
-      </c>
-      <c r="D5">
-        <v>1.034618811251114</v>
       </c>
       <c r="E5">
         <v>1.079195082124676</v>
       </c>
       <c r="F5">
-        <v>1.051058558621594</v>
+        <v>1.046480275858092</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1086,19 +1077,19 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.043612914174197</v>
+      </c>
+      <c r="C6">
         <v>1.115102280512871</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.024829600778968</v>
-      </c>
-      <c r="D6">
-        <v>1.043612914174197</v>
       </c>
       <c r="E6">
         <v>1.111756795696859</v>
       </c>
       <c r="F6">
-        <v>1.075060424077061</v>
+        <v>1.072055093933824</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1112,19 +1103,19 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.044758389546477</v>
+      </c>
+      <c r="C7">
         <v>1.111187236958011</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.03188899707887</v>
-      </c>
-      <c r="D7">
-        <v>1.044758389546477</v>
       </c>
       <c r="E7">
         <v>1.098261454231102</v>
       </c>
       <c r="F7">
-        <v>1.071519508232871</v>
+        <v>1.069460405438054</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1138,19 +1129,19 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.047770565525434</v>
+      </c>
+      <c r="C8">
         <v>1.063717333855339</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.002921129503408</v>
-      </c>
-      <c r="D8">
-        <v>1.047770565525434</v>
       </c>
       <c r="E8">
         <v>1.055998463163961</v>
       </c>
       <c r="F8">
-        <v>1.045572318238488</v>
+        <v>1.038396408474963</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1164,19 +1155,19 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.059013194179288</v>
+      </c>
+      <c r="C9">
         <v>1.08808847998434</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.009818240830899</v>
-      </c>
-      <c r="D9">
-        <v>1.059013194179288</v>
       </c>
       <c r="E9">
         <v>1.083181250600327</v>
       </c>
       <c r="F9">
-        <v>1.063568309315864</v>
+        <v>1.055697116780121</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1190,19 +1181,19 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.041746213567519</v>
+      </c>
+      <c r="C10">
         <v>1.05392972496819</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.011197663096397</v>
-      </c>
-      <c r="D10">
-        <v>1.041746213567519</v>
       </c>
       <c r="E10">
         <v>1.045961002785516</v>
       </c>
       <c r="F10">
-        <v>1.040015037367481</v>
+        <v>1.035127269292102</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1216,19 +1207,19 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.04331593907768</v>
+      </c>
+      <c r="C11">
         <v>1.032984241949692</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.030915287244401</v>
-      </c>
-      <c r="D11">
-        <v>1.04331593907768</v>
       </c>
       <c r="E11">
         <v>1.018345980213236</v>
       </c>
       <c r="F11">
-        <v>1.031211353328998</v>
+        <v>1.029227249035674</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1242,19 +1233,19 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.040558313181452</v>
+      </c>
+      <c r="C12">
         <v>1.043750611725555</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.018987341772152</v>
-      </c>
-      <c r="D12">
-        <v>1.040558313181452</v>
       </c>
       <c r="E12">
         <v>1.040678128902123</v>
       </c>
       <c r="F12">
-        <v>1.03747347798219</v>
+        <v>1.034022122556702</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1268,19 +1259,19 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.052819142166221</v>
+      </c>
+      <c r="C13">
         <v>1.059508662033865</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.019068484258358</v>
-      </c>
-      <c r="D13">
-        <v>1.052819142166221</v>
       </c>
       <c r="E13">
         <v>1.050859667659207</v>
       </c>
       <c r="F13">
-        <v>1.047572122112069</v>
+        <v>1.042172016846811</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1294,19 +1285,19 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.030758134996394</v>
+      </c>
+      <c r="C14">
         <v>1.022413624351571</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.014930217461863</v>
-      </c>
-      <c r="D14">
-        <v>1.030758134996394</v>
       </c>
       <c r="E14">
         <v>1.02165978292191</v>
       </c>
       <c r="F14">
-        <v>1.023646366021324</v>
+        <v>1.021113899215799</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1320,19 +1311,19 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.076068049722116</v>
+      </c>
+      <c r="C15">
         <v>1.053146716257218</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.044303797468354</v>
-      </c>
-      <c r="D15">
-        <v>1.076068049722116</v>
       </c>
       <c r="E15">
         <v>1.069685909134569</v>
       </c>
       <c r="F15">
-        <v>1.064665393756054</v>
+        <v>1.059583113395452</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1346,19 +1337,19 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.111492936235204</v>
+      </c>
+      <c r="C16">
         <v>1.090535382206127</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.046819214540734</v>
-      </c>
-      <c r="D16">
-        <v>1.111492936235204</v>
       </c>
       <c r="E16">
         <v>1.099029872250505</v>
       </c>
       <c r="F16">
-        <v>1.09282280824725</v>
+        <v>1.082475012776135</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1372,19 +1363,19 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.176997157524076</v>
+      </c>
+      <c r="C17">
         <v>1.10061661935989</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.033917559234015</v>
-      </c>
-      <c r="D17">
-        <v>1.176997157524076</v>
       </c>
       <c r="E17">
         <v>1.13019882816252</v>
       </c>
       <c r="F17">
-        <v>1.124245485637541</v>
+        <v>1.101352749911131</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1398,19 +1389,19 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.190276186839761</v>
+      </c>
+      <c r="C18">
         <v>1.116178917490457</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.025884453099643</v>
-      </c>
-      <c r="D18">
-        <v>1.190276186839761</v>
       </c>
       <c r="E18">
         <v>1.1354336759197</v>
       </c>
       <c r="F18">
-        <v>1.131635027710939</v>
+        <v>1.105332350312521</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1424,19 +1415,19 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.140129820542192</v>
+      </c>
+      <c r="C19">
         <v>1.09601644318293</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.031807854592665</v>
-      </c>
-      <c r="D19">
-        <v>1.140129820542192</v>
       </c>
       <c r="E19">
         <v>1.107674574968783</v>
       </c>
       <c r="F19">
-        <v>1.103505581140473</v>
+        <v>1.086174066588549</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1450,19 +1441,19 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.134741843791099</v>
+      </c>
+      <c r="C20">
         <v>1.089262993050798</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.032456994482311</v>
-      </c>
-      <c r="D20">
-        <v>1.134741843791099</v>
       </c>
       <c r="E20">
         <v>1.120785707424839</v>
       </c>
       <c r="F20">
-        <v>1.105016489781888</v>
+        <v>1.088650913892482</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1476,19 +1467,19 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.090238004327351</v>
+      </c>
+      <c r="C21">
         <v>1.049133796613487</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.01460564751704</v>
-      </c>
-      <c r="D21">
-        <v>1.090238004327351</v>
       </c>
       <c r="E21">
         <v>1.073191816348093</v>
       </c>
       <c r="F21">
-        <v>1.064767546325086</v>
+        <v>1.052666369235437</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1502,19 +1493,19 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.086080352976115</v>
+      </c>
+      <c r="C22">
         <v>1.036312028971322</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.9970788704965919</v>
-      </c>
-      <c r="D22">
-        <v>1.086080352976115</v>
       </c>
       <c r="E22">
         <v>1.052300451445586</v>
       </c>
       <c r="F22">
-        <v>1.051342118368707</v>
+        <v>1.037101881171983</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1528,19 +1519,19 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.112468711552331</v>
+      </c>
+      <c r="C23">
         <v>1.048155035724772</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.9999188575137943</v>
-      </c>
-      <c r="D23">
-        <v>1.112468711552331</v>
       </c>
       <c r="E23">
         <v>1.048554413600999</v>
       </c>
       <c r="F23">
-        <v>1.061310193151155</v>
+        <v>1.043302216504989</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1554,19 +1545,19 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.121929489627084</v>
+      </c>
+      <c r="C24">
         <v>1.078790251541548</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.007546251217137</v>
-      </c>
-      <c r="D24">
-        <v>1.121929489627084</v>
       </c>
       <c r="E24">
         <v>1.10436077226011</v>
       </c>
       <c r="F24">
-        <v>1.089352991891751</v>
+        <v>1.071051673746159</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1580,19 +1571,19 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.12566289084044</v>
+      </c>
+      <c r="C25">
         <v>1.084564940784966</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.022963323596235</v>
-      </c>
-      <c r="D25">
-        <v>1.12566289084044</v>
       </c>
       <c r="E25">
         <v>1.104120641629046</v>
       </c>
       <c r="F25">
-        <v>1.094108370659735</v>
+        <v>1.077676439900662</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1606,19 +1597,19 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.109032285435493</v>
+      </c>
+      <c r="C26">
         <v>1.040227072526182</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.011927945472249</v>
-      </c>
-      <c r="D26">
-        <v>1.109032285435493</v>
       </c>
       <c r="E26">
         <v>1.0789069253674</v>
       </c>
       <c r="F26">
-        <v>1.070886292624688</v>
+        <v>1.055349598230569</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1632,19 +1623,19 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.132111492936235</v>
+      </c>
+      <c r="C27">
         <v>0.9885484976020358</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.003813696851672</v>
-      </c>
-      <c r="D27">
-        <v>1.132111492936235</v>
       </c>
       <c r="E27">
         <v>1.040774181154548</v>
       </c>
       <c r="F27">
-        <v>1.055753845507089</v>
+        <v>1.035226198133559</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1658,19 +1649,19 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.145772347376013</v>
+      </c>
+      <c r="C28">
         <v>1.028873446217089</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.000324569944823</v>
-      </c>
-      <c r="D28">
-        <v>1.145772347376013</v>
       </c>
       <c r="E28">
         <v>1.066420132552108</v>
       </c>
       <c r="F28">
-        <v>1.074987181123805</v>
+        <v>1.051715536734815</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1684,19 +1675,19 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.168342454711298</v>
+      </c>
+      <c r="C29">
         <v>1.080062640696878</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.012009087958455</v>
-      </c>
-      <c r="D29">
-        <v>1.168342454711298</v>
       </c>
       <c r="E29">
         <v>1.100374603784459</v>
       </c>
       <c r="F29">
-        <v>1.104328823175006</v>
+        <v>1.079315484494551</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1710,19 +1701,19 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.1979975393492</v>
+      </c>
+      <c r="C30">
         <v>1.108936086913967</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.020447906523856</v>
-      </c>
-      <c r="D30">
-        <v>1.1979975393492</v>
       </c>
       <c r="E30">
         <v>1.116319277687062</v>
       </c>
       <c r="F30">
-        <v>1.125719828506397</v>
+        <v>1.097311887254341</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1736,19 +1727,19 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.143226846548725</v>
+      </c>
+      <c r="C31">
         <v>1.181070764412254</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.067429406037001</v>
-      </c>
-      <c r="D31">
-        <v>1.143226846548725</v>
       </c>
       <c r="E31">
         <v>1.101239074056287</v>
       </c>
       <c r="F31">
-        <v>1.122918782776027</v>
+        <v>1.110791192294152</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1762,19 +1753,19 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.156633150905774</v>
+      </c>
+      <c r="C32">
         <v>1.197513947342664</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.075462512171373</v>
-      </c>
-      <c r="D32">
-        <v>1.156633150905774</v>
       </c>
       <c r="E32">
         <v>1.07674574968783</v>
       </c>
       <c r="F32">
-        <v>1.123421035313276</v>
+        <v>1.110433733115772</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1788,19 +1779,19 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.104280683891222</v>
+      </c>
+      <c r="C33">
         <v>1.254477831065871</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.136643946770529</v>
-      </c>
-      <c r="D33">
-        <v>1.104280683891222</v>
       </c>
       <c r="E33">
         <v>1.056910959562002</v>
       </c>
       <c r="F33">
-        <v>1.119683944571752</v>
+        <v>1.124862066632441</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1814,19 +1805,19 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.087692503500064</v>
+      </c>
+      <c r="C34">
         <v>1.237055887246746</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.127069133398247</v>
-      </c>
-      <c r="D34">
-        <v>1.087692503500064</v>
       </c>
       <c r="E34">
         <v>1.033618288348862</v>
       </c>
       <c r="F34">
-        <v>1.101933814819794</v>
+        <v>1.108234075603504</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1840,19 +1831,19 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.046073564973909</v>
+      </c>
+      <c r="C35">
         <v>1.182343153567583</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.102564102564103</v>
-      </c>
-      <c r="D35">
-        <v>1.046073564973909</v>
       </c>
       <c r="E35">
         <v>0.9825665161848046</v>
       </c>
       <c r="F35">
-        <v>1.057885460324762</v>
+        <v>1.066923946339193</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1866,19 +1857,19 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.042891688939799</v>
+      </c>
+      <c r="C36">
         <v>1.168934129392189</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.110029211295034</v>
-      </c>
-      <c r="D36">
-        <v>1.042891688939799</v>
       </c>
       <c r="E36">
         <v>0.9625396215541255</v>
       </c>
       <c r="F36">
-        <v>1.049216100379823</v>
+        <v>1.059958103956661</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1892,19 +1883,19 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.014254804632811</v>
+      </c>
+      <c r="C37">
         <v>1.116766174023686</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.087877312560857</v>
-      </c>
-      <c r="D37">
-        <v>1.014254804632812</v>
       </c>
       <c r="E37">
         <v>0.9374699836711171</v>
       </c>
       <c r="F37">
-        <v>1.018858572859669</v>
+        <v>1.030638174128156</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1918,19 +1909,19 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.028764159348352</v>
+      </c>
+      <c r="C38">
         <v>1.158069883527454</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1.131775397598183</v>
-      </c>
-      <c r="D38">
-        <v>1.028764159348352</v>
       </c>
       <c r="E38">
         <v>0.980981654019787</v>
       </c>
       <c r="F38">
-        <v>1.052489816202844</v>
+        <v>1.068971614322817</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1944,19 +1935,19 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.008654702812778</v>
+      </c>
+      <c r="C39">
         <v>1.119213076245473</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1.127799415774099</v>
-      </c>
-      <c r="D39">
-        <v>1.008654702812778</v>
       </c>
       <c r="E39">
         <v>0.9807415233887236</v>
       </c>
       <c r="F39">
-        <v>1.038492878289823</v>
+        <v>1.057556032363634</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1970,19 +1961,19 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.026727758686522</v>
+      </c>
+      <c r="C40">
         <v>1.160908290104727</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.20772476468679</v>
-      </c>
-      <c r="D40">
-        <v>1.026727758686522</v>
       </c>
       <c r="E40">
         <v>0.9912112189030833</v>
       </c>
       <c r="F40">
-        <v>1.068587481919128</v>
+        <v>1.097547002879171</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1996,19 +1987,19 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9777268677612321</v>
+      </c>
+      <c r="C41">
         <v>1.115395908779485</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1.233690360272639</v>
-      </c>
-      <c r="D41">
-        <v>0.977726867761232</v>
       </c>
       <c r="E41">
         <v>0.9335798674478917</v>
       </c>
       <c r="F41">
-        <v>1.030075888357872</v>
+        <v>1.071030047159697</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2022,19 +2013,19 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.980654193712613</v>
+      </c>
+      <c r="C42">
         <v>1.077713614563962</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>1.178594612138916</v>
-      </c>
-      <c r="D42">
-        <v>0.9806541937126129</v>
       </c>
       <c r="E42">
         <v>0.9333397368168285</v>
       </c>
       <c r="F42">
-        <v>1.015190395614205</v>
+        <v>1.046860862562413</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2048,19 +2039,19 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.9222349497263587</v>
+      </c>
+      <c r="C43">
         <v>1.047861407458158</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>1.168451801363194</v>
-      </c>
-      <c r="D43">
-        <v>0.9222349497263587</v>
       </c>
       <c r="E43">
         <v>0.8843050619537028</v>
       </c>
       <c r="F43">
-        <v>0.9729314493540501</v>
+        <v>1.012326145615944</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2074,19 +2065,19 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.8939798905434645</v>
+      </c>
+      <c r="C44">
         <v>1.030733091905647</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>1.179811749432003</v>
-      </c>
-      <c r="D44">
-        <v>0.8939798905434645</v>
       </c>
       <c r="E44">
         <v>0.8690807799442898</v>
       </c>
       <c r="F44">
-        <v>0.9576026442883595</v>
+        <v>1.003335741710526</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2100,19 +2091,19 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9166348479063257</v>
+      </c>
+      <c r="C45">
         <v>1.029852207105804</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>1.158876987990912</v>
-      </c>
-      <c r="D45">
-        <v>0.9166348479063254</v>
       </c>
       <c r="E45">
         <v>0.890500432235136</v>
       </c>
       <c r="F45">
-        <v>0.968438605613124</v>
+        <v>1.007197348026658</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2126,19 +2117,19 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9417080310551101</v>
+      </c>
+      <c r="C46">
         <v>1.093080160516786</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>1.216812723141837</v>
-      </c>
-      <c r="D46">
-        <v>0.9417080310551101</v>
       </c>
       <c r="E46">
         <v>0.9168187493996736</v>
       </c>
       <c r="F46">
-        <v>1.005995627772045</v>
+        <v>1.050012378505921</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2152,19 +2143,19 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.9434898816342115</v>
+      </c>
+      <c r="C47">
         <v>1.080160516785749</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1.223304122038299</v>
-      </c>
-      <c r="D47">
-        <v>0.9434898816342115</v>
       </c>
       <c r="E47">
         <v>0.9207568917491116</v>
       </c>
       <c r="F47">
-        <v>1.006790423816585</v>
+        <v>1.051560702281239</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2178,19 +2169,19 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.8962708412880235</v>
+      </c>
+      <c r="C48">
         <v>1.082411666829794</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1.240425186627718</v>
-      </c>
-      <c r="D48">
-        <v>0.8962708412880235</v>
       </c>
       <c r="E48">
         <v>0.8923734511574297</v>
       </c>
       <c r="F48">
-        <v>0.9851348815947767</v>
+        <v>1.040199576849128</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2204,19 +2195,19 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.902634593356243</v>
+      </c>
+      <c r="C49">
         <v>1.059704414211608</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>1.223547549496917</v>
-      </c>
-      <c r="D49">
-        <v>0.902634593356243</v>
       </c>
       <c r="E49">
         <v>0.894870809720488</v>
       </c>
       <c r="F49">
-        <v>0.9813296168457705</v>
+        <v>1.032675689828278</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2230,19 +2221,19 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9117983963344788</v>
+      </c>
+      <c r="C50">
         <v>1.065576979543897</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>1.205939629990263</v>
-      </c>
-      <c r="D50">
-        <v>0.9117983963344788</v>
       </c>
       <c r="E50">
         <v>0.9174430890404381</v>
       </c>
       <c r="F50">
-        <v>0.9898075137945299</v>
+        <v>1.036870111179455</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2256,19 +2247,19 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9280896016291206</v>
+      </c>
+      <c r="C51">
         <v>1.065674855632769</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>1.21811100292113</v>
-      </c>
-      <c r="D51">
-        <v>0.9280896016291205</v>
       </c>
       <c r="E51">
         <v>0.9207568917491116</v>
       </c>
       <c r="F51">
-        <v>0.9983629387689794</v>
+        <v>1.044766362975701</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2282,19 +2273,19 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9075983199694539</v>
+      </c>
+      <c r="C52">
         <v>1.042869726925712</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>1.209672184355729</v>
-      </c>
-      <c r="D52">
-        <v>0.9075983199694539</v>
       </c>
       <c r="E52">
         <v>0.8901162232254347</v>
       </c>
       <c r="F52">
-        <v>0.9761779241721582</v>
+        <v>1.024509742473962</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2308,19 +2299,19 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9096347206312841</v>
+      </c>
+      <c r="C53">
         <v>1.046491142213957</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>1.215433300876339</v>
-      </c>
-      <c r="D53">
-        <v>0.9096347206312841</v>
       </c>
       <c r="E53">
         <v>0.9013543367591971</v>
       </c>
       <c r="F53">
-        <v>0.9821535442642092</v>
+        <v>1.031081317103418</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2334,19 +2325,19 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9061982945144458</v>
+      </c>
+      <c r="C54">
         <v>1.005970441421161</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>1.167883803959753</v>
-      </c>
-      <c r="D54">
-        <v>0.9061982945144458</v>
       </c>
       <c r="E54">
         <v>0.8681682835462493</v>
       </c>
       <c r="F54">
-        <v>0.9550961924747848</v>
+        <v>0.9969658739860341</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2360,19 +2351,19 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9079801450935472</v>
+      </c>
+      <c r="C55">
         <v>0.9642752275619065</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>1.123904576436222</v>
-      </c>
-      <c r="D55">
-        <v>0.9079801450935472</v>
       </c>
       <c r="E55">
         <v>0.8384881375468255</v>
       </c>
       <c r="F55">
-        <v>0.931325099951005</v>
+        <v>0.9658730089658329</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2386,19 +2377,19 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9242713503881889</v>
+      </c>
+      <c r="C56">
         <v>0.9700499168053244</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>1.129341123012009</v>
-      </c>
-      <c r="D56">
-        <v>0.9242713503881889</v>
       </c>
       <c r="E56">
         <v>0.8523676880222841</v>
       </c>
       <c r="F56">
-        <v>0.9431873594444029</v>
+        <v>0.9759985230642141</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2412,19 +2403,19 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.9536718849433626</v>
+      </c>
+      <c r="C57">
         <v>1.003132034843887</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>1.14930217461863</v>
-      </c>
-      <c r="D57">
-        <v>0.9536718849433626</v>
       </c>
       <c r="E57">
         <v>0.8949188358467006</v>
       </c>
       <c r="F57">
-        <v>0.975948753469349</v>
+        <v>1.007249599817392</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2438,19 +2429,19 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.955453735522464</v>
+      </c>
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>1.158390133073677</v>
-      </c>
-      <c r="D58">
-        <v>0.955453735522464</v>
       </c>
       <c r="E58">
         <v>0.8840169051964269</v>
       </c>
       <c r="F58">
-        <v>0.9739516340597593</v>
+        <v>1.006421457667953</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2464,19 +2455,19 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9709812905689195</v>
+      </c>
+      <c r="C59">
         <v>1.01380052853088</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>1.169344368711457</v>
-      </c>
-      <c r="D59">
-        <v>0.9709812905689195</v>
       </c>
       <c r="E59">
         <v>0.8964076457592931</v>
       </c>
       <c r="F59">
-        <v>0.9873729815195076</v>
+        <v>1.019111074022314</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2490,19 +2481,19 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9655084637902507</v>
+      </c>
+      <c r="C60">
         <v>0.9898208867573652</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>1.159769555339176</v>
-      </c>
-      <c r="D60">
-        <v>0.9655084637902509</v>
       </c>
       <c r="E60">
         <v>0.883872826817789</v>
       </c>
       <c r="F60">
-        <v>0.9757262010570651</v>
+        <v>1.006807975704893</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2516,19 +2507,19 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9922362224767723</v>
+      </c>
+      <c r="C61">
         <v>0.9985318586669276</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>1.197987666342097</v>
-      </c>
-      <c r="D61">
-        <v>0.9922362224767723</v>
       </c>
       <c r="E61">
         <v>0.9008260493708578</v>
       </c>
       <c r="F61">
-        <v>0.9981188689612521</v>
+        <v>1.031039099979704</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2542,19 +2533,19 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.001272750413644</v>
+      </c>
+      <c r="C62">
         <v>1.007047078398747</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>1.178026614735475</v>
-      </c>
-      <c r="D62">
-        <v>1.001272750413644</v>
       </c>
       <c r="E62">
         <v>0.913937181826914</v>
       </c>
       <c r="F62">
-        <v>1.003481805472202</v>
+        <v>1.031762423763695</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2568,19 +2559,19 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.9826905943744432</v>
+      </c>
+      <c r="C63">
         <v>1.012528139375551</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>1.192956832197339</v>
-      </c>
-      <c r="D63">
-        <v>0.9826905943744432</v>
       </c>
       <c r="E63">
         <v>0.9183075593122659</v>
       </c>
       <c r="F63">
-        <v>1.002261835884005</v>
+        <v>1.035904433935668</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2594,19 +2585,19 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9717449408171058</v>
+      </c>
+      <c r="C64">
         <v>1.024664774395615</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>1.245456020772477</v>
-      </c>
-      <c r="D64">
-        <v>0.9717449408171057</v>
       </c>
       <c r="E64">
         <v>0.911391797137643</v>
       </c>
       <c r="F64">
-        <v>1.007355658703643</v>
+        <v>1.051149431496502</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2620,19 +2611,19 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9900725467735777</v>
+      </c>
+      <c r="C65">
         <v>1.037584418126652</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>1.261116520610192</v>
-      </c>
-      <c r="D65">
-        <v>0.9900725467735778</v>
       </c>
       <c r="E65">
         <v>0.9065411583901642</v>
       </c>
       <c r="F65">
-        <v>1.016661682289298</v>
+        <v>1.060028718103156</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2646,19 +2637,19 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9788723431335116</v>
+      </c>
+      <c r="C66">
         <v>1.035039639815993</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>1.273531320999675</v>
-      </c>
-      <c r="D66">
-        <v>0.9788723431335116</v>
       </c>
       <c r="E66">
         <v>0.8905964844875613</v>
       </c>
       <c r="F66">
-        <v>1.009381776453618</v>
+        <v>1.056527212912204</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2672,19 +2663,19 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9441262568410335</v>
+      </c>
+      <c r="C67">
         <v>0.9920720368014094</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>1.291220382992535</v>
-      </c>
-      <c r="D67">
-        <v>0.9441262568410335</v>
       </c>
       <c r="E67">
         <v>0.8604841033522237</v>
       </c>
       <c r="F67">
-        <v>0.9836811302287454</v>
+        <v>1.039216190412986</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2698,19 +2689,19 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9574901361842942</v>
+      </c>
+      <c r="C68">
         <v>0.9850249584026621</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>1.26460564751704</v>
-      </c>
-      <c r="D68">
-        <v>0.9574901361842942</v>
       </c>
       <c r="E68">
         <v>0.8655748727307656</v>
       </c>
       <c r="F68">
-        <v>0.984048655948319</v>
+        <v>1.033187137761558</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2724,19 +2715,19 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9670357642866233</v>
+      </c>
+      <c r="C69">
         <v>1.008515219731819</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>1.287650113599481</v>
-      </c>
-      <c r="D69">
-        <v>0.9670357642866233</v>
       </c>
       <c r="E69">
         <v>0.9065411583901642</v>
       </c>
       <c r="F69">
-        <v>1.008628491149661</v>
+        <v>1.059926787039718</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2750,19 +2741,19 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9658902889143439</v>
+      </c>
+      <c r="C70">
         <v>1.024273270040129</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>1.277263875365141</v>
-      </c>
-      <c r="D70">
-        <v>0.9658902889143439</v>
       </c>
       <c r="E70">
         <v>0.9049082700989339</v>
       </c>
       <c r="F70">
-        <v>1.008624839193278</v>
+        <v>1.058444613025405</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2776,19 +2767,19 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.964235713376607</v>
+      </c>
+      <c r="C71">
         <v>1.01840070470784</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>1.281077572216813</v>
-      </c>
-      <c r="D71">
-        <v>0.964235713376607</v>
       </c>
       <c r="E71">
         <v>0.8990010565747767</v>
       </c>
       <c r="F71">
-        <v>1.005779441161148</v>
+        <v>1.05647413857558</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2802,19 +2793,19 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9862542955326461</v>
+      </c>
+      <c r="C72">
         <v>1.056670255456592</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>1.272963323596235</v>
-      </c>
-      <c r="D72">
-        <v>0.9862542955326461</v>
       </c>
       <c r="E72">
         <v>0.9587455575833254</v>
       </c>
       <c r="F72">
-        <v>1.037887659967251</v>
+        <v>1.083761104457425</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2828,19 +2819,19 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9973272241313479</v>
+      </c>
+      <c r="C73">
         <v>1.046784770480572</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>1.284647841609867</v>
-      </c>
-      <c r="D73">
-        <v>0.9973272241313479</v>
       </c>
       <c r="E73">
         <v>0.9505330900009606</v>
       </c>
       <c r="F73">
-        <v>1.039137447719036</v>
+        <v>1.0851087465156</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2854,19 +2845,19 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.013363879343261</v>
+      </c>
+      <c r="C74">
         <v>1.039346187726339</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>1.254462836741318</v>
-      </c>
-      <c r="D74">
-        <v>1.013363879343261</v>
       </c>
       <c r="E74">
         <v>0.9491403323407934</v>
       </c>
       <c r="F74">
-        <v>1.03757392401524</v>
+        <v>1.076149757198929</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2880,19 +2871,19 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.014000254550083</v>
+      </c>
+      <c r="C75">
         <v>1.043652735636684</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>1.279941577409932</v>
-      </c>
-      <c r="D75">
-        <v>1.014000254550083</v>
       </c>
       <c r="E75">
         <v>0.9515416386514265</v>
       </c>
       <c r="F75">
-        <v>1.043639857974423</v>
+        <v>1.086190469631999</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2906,19 +2897,19 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.05307369224895</v>
+      </c>
+      <c r="C76">
         <v>1.055006361945777</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>1.301606621226874</v>
-      </c>
-      <c r="D76">
-        <v>1.05307369224895</v>
       </c>
       <c r="E76">
         <v>0.9658053981365864</v>
       </c>
       <c r="F76">
-        <v>1.066854306966578</v>
+        <v>1.106619575603046</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2932,19 +2923,19 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>1.049000890925289</v>
+      </c>
+      <c r="C77">
         <v>1.06313007732211</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>1.285540408958131</v>
-      </c>
-      <c r="D77">
-        <v>1.049000890925289</v>
       </c>
       <c r="E77">
         <v>0.9528863701853809</v>
       </c>
       <c r="F77">
-        <v>1.059896778834162</v>
+        <v>1.097743101719417</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2958,19 +2949,19 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>1.07483772432226</v>
+      </c>
+      <c r="C78">
         <v>1.065479103455026</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>1.274586173320351</v>
-      </c>
-      <c r="D78">
-        <v>1.07483772432226</v>
       </c>
       <c r="E78">
         <v>0.9460186341369706</v>
       </c>
       <c r="F78">
-        <v>1.06469369534336</v>
+        <v>1.096653447183055</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2984,19 +2975,19 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.083619702176403</v>
+      </c>
+      <c r="C79">
         <v>1.065870607810512</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>1.287650113599481</v>
-      </c>
-      <c r="D79">
-        <v>1.083619702176403</v>
       </c>
       <c r="E79">
         <v>0.9720487945442321</v>
       </c>
       <c r="F79">
-        <v>1.078469126557509</v>
+        <v>1.111113992385201</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3010,19 +3001,19 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.083619702176403</v>
+      </c>
+      <c r="C80">
         <v>1.076049721053147</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>1.276858162934112</v>
-      </c>
-      <c r="D80">
-        <v>1.083619702176403</v>
       </c>
       <c r="E80">
         <v>0.9715685332821056</v>
       </c>
       <c r="F80">
-        <v>1.078206457979142</v>
+        <v>1.109124611700375</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3036,19 +3027,19 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.088583428789614</v>
+      </c>
+      <c r="C81">
         <v>1.073798571009102</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>1.264524505030834</v>
-      </c>
-      <c r="D81">
-        <v>1.088583428789614</v>
       </c>
       <c r="E81">
         <v>0.9920756891749113</v>
       </c>
       <c r="F81">
-        <v>1.084132431855083</v>
+        <v>1.112283004053678</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3062,19 +3053,19 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.055619193076238</v>
+      </c>
+      <c r="C82">
         <v>1.10061661935989</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>1.333657903278156</v>
-      </c>
-      <c r="D82">
-        <v>1.055619193076238</v>
       </c>
       <c r="E82">
         <v>0.9846316396119489</v>
       </c>
       <c r="F82">
-        <v>1.087109443635569</v>
+        <v>1.131595637267877</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3088,19 +3079,19 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>1.015145729922362</v>
+      </c>
+      <c r="C83">
         <v>1.129587941665851</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>1.368062317429406</v>
-      </c>
-      <c r="D83">
-        <v>1.015145729922362</v>
       </c>
       <c r="E83">
         <v>0.9554317548746519</v>
       </c>
       <c r="F83">
-        <v>1.074891114029208</v>
+        <v>1.131357768030335</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3114,19 +3105,19 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>1.025964108438335</v>
+      </c>
+      <c r="C84">
         <v>1.185181560144857</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>1.434761441090555</v>
-      </c>
-      <c r="D84">
-        <v>1.025964108438335</v>
       </c>
       <c r="E84">
         <v>0.9644126404764194</v>
       </c>
       <c r="F84">
-        <v>1.102214637351889</v>
+        <v>1.167622210576244</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3140,19 +3131,19 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>1.044546264477536</v>
+      </c>
+      <c r="C85">
         <v>1.136341391797984</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>1.3862382343395</v>
-      </c>
-      <c r="D85">
-        <v>1.044546264477536</v>
       </c>
       <c r="E85">
         <v>0.9444817980981655</v>
       </c>
       <c r="F85">
-        <v>1.085217797093354</v>
+        <v>1.139888512271268</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3166,19 +3157,19 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>1.068983072419498</v>
+      </c>
+      <c r="C86">
         <v>1.141920328863659</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>1.405063291139241</v>
-      </c>
-      <c r="D86">
-        <v>1.068983072419498</v>
       </c>
       <c r="E86">
         <v>0.9481798098165403</v>
       </c>
       <c r="F86">
-        <v>1.098650966538386</v>
+        <v>1.152423801533544</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3192,19 +3183,19 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>1.074964999363625</v>
+      </c>
+      <c r="C87">
         <v>1.084662816873838</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>1.328059071729958</v>
-      </c>
-      <c r="D87">
-        <v>1.074964999363625</v>
       </c>
       <c r="E87">
         <v>0.9260877917587168</v>
       </c>
       <c r="F87">
-        <v>1.070510142133018</v>
+        <v>1.111005193711631</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3218,19 +3209,19 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>1.082092401680031</v>
+      </c>
+      <c r="C88">
         <v>1.089850249584027</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>1.321729957805907</v>
-      </c>
-      <c r="D88">
-        <v>1.08209240168003</v>
       </c>
       <c r="E88">
         <v>0.9557679377581405</v>
       </c>
       <c r="F88">
-        <v>1.082462547270885</v>
+        <v>1.120804556251025</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3244,19 +3235,19 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.11136566119384</v>
+      </c>
+      <c r="C89">
         <v>1.121757854556132</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>1.315644271340474</v>
-      </c>
-      <c r="D89">
-        <v>1.11136566119384</v>
       </c>
       <c r="E89">
         <v>1.002449332436846</v>
       </c>
       <c r="F89">
-        <v>1.111917309300549</v>
+        <v>1.144601886924011</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3270,19 +3261,19 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.104492808960163</v>
+      </c>
+      <c r="C90">
         <v>1.136047763531369</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>1.331710483609218</v>
-      </c>
-      <c r="D90">
-        <v>1.104492808960163</v>
       </c>
       <c r="E90">
         <v>1.003361828834886</v>
       </c>
       <c r="F90">
-        <v>1.115110932486266</v>
+        <v>1.151465760430115</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3296,19 +3287,19 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.094310805651012</v>
+      </c>
+      <c r="C91">
         <v>1.142311833219144</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>1.306231742940604</v>
-      </c>
-      <c r="D91">
-        <v>1.094310805651012</v>
       </c>
       <c r="E91">
         <v>1.040149841513784</v>
       </c>
       <c r="F91">
-        <v>1.12062442151154</v>
+        <v>1.154531771477874</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3322,19 +3313,19 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.10818378515973</v>
+      </c>
+      <c r="C92">
         <v>1.107957326025252</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>1.24943200259656</v>
-      </c>
-      <c r="D92">
-        <v>1.10818378515973</v>
       </c>
       <c r="E92">
         <v>1.044616271251561</v>
       </c>
       <c r="F92">
-        <v>1.111180204481434</v>
+        <v>1.133779919271327</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3348,19 +3339,19 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.113911162021128</v>
+      </c>
+      <c r="C93">
         <v>1.114221395713027</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>1.276858162934112</v>
-      </c>
-      <c r="D93">
-        <v>1.113911162021128</v>
       </c>
       <c r="E93">
         <v>1.040437998271059</v>
       </c>
       <c r="F93">
-        <v>1.117418747866436</v>
+        <v>1.143490268012513</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3374,19 +3365,19 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.11022018582156</v>
+      </c>
+      <c r="C94">
         <v>1.106195556425565</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>1.252921129503408</v>
-      </c>
-      <c r="D94">
-        <v>1.11022018582156</v>
       </c>
       <c r="E94">
         <v>1.046825473057343</v>
       </c>
       <c r="F94">
-        <v>1.112874904037964</v>
+        <v>1.135707055027059</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3400,19 +3391,19 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.13834796996309</v>
+      </c>
+      <c r="C95">
         <v>1.115493784868357</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>1.262820512820513</v>
-      </c>
-      <c r="D95">
-        <v>1.13834796996309</v>
       </c>
       <c r="E95">
         <v>1.060320814523101</v>
       </c>
       <c r="F95">
-        <v>1.129874129487551</v>
+        <v>1.149789736344738</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3426,19 +3417,19 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.134529718722159</v>
+      </c>
+      <c r="C96">
         <v>1.125477145933248</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>1.260873093151574</v>
-      </c>
-      <c r="D96">
-        <v>1.134529718722159</v>
       </c>
       <c r="E96">
         <v>1.051195850542695</v>
       </c>
       <c r="F96">
-        <v>1.126968978501822</v>
+        <v>1.147183918410528</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3452,19 +3443,19 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.156166475754105</v>
+      </c>
+      <c r="C97">
         <v>1.125672898110991</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>1.268987341772152</v>
-      </c>
-      <c r="D97">
-        <v>1.156166475754105</v>
       </c>
       <c r="E97">
         <v>1.054605705503794</v>
       </c>
       <c r="F97">
-        <v>1.136647060595241</v>
+        <v>1.154698399158129</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3478,19 +3469,19 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.130329642357134</v>
+      </c>
+      <c r="C98">
         <v>1.142996965841245</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>1.264443362544629</v>
-      </c>
-      <c r="D98">
-        <v>1.130329642357134</v>
       </c>
       <c r="E98">
         <v>1.100230525405821</v>
       </c>
       <c r="F98">
-        <v>1.145349711187374</v>
+        <v>1.166807906417373</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3504,19 +3495,19 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.142929871452208</v>
+      </c>
+      <c r="C99">
         <v>1.174415190368993</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1.264281077572217</v>
-      </c>
-      <c r="D99">
-        <v>1.142929871452208</v>
       </c>
       <c r="E99">
         <v>1.15565267505523</v>
       </c>
       <c r="F99">
-        <v>1.173110605897461</v>
+        <v>1.192526798876662</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3530,19 +3521,19 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.1676212294769</v>
+      </c>
+      <c r="C100">
         <v>1.176079083879808</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1.270853618954885</v>
-      </c>
-      <c r="D100">
-        <v>1.1676212294769</v>
       </c>
       <c r="E100">
         <v>1.144894822783594</v>
       </c>
       <c r="F100">
-        <v>1.179108856727861</v>
+        <v>1.195626039044339</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3556,19 +3547,19 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.142038946162657</v>
+      </c>
+      <c r="C101">
         <v>1.15914652050504</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1.250081142486206</v>
-      </c>
-      <c r="D101">
-        <v>1.142038946162657</v>
       </c>
       <c r="E101">
         <v>1.139131687638075</v>
       </c>
       <c r="F101">
-        <v>1.162355011862754</v>
+        <v>1.179641763274522</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3582,19 +3573,19 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.130838742522591</v>
+      </c>
+      <c r="C102">
         <v>1.159440148771655</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>1.277994157740993</v>
-      </c>
-      <c r="D102">
-        <v>1.130838742522591</v>
       </c>
       <c r="E102">
         <v>1.133560656997407</v>
       </c>
       <c r="F102">
-        <v>1.16161563394875</v>
+        <v>1.185160500383694</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3608,19 +3599,19 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.144329896907216</v>
+      </c>
+      <c r="C103">
         <v>1.15581873348341</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1.259899383317105</v>
-      </c>
-      <c r="D103">
-        <v>1.144329896907217</v>
       </c>
       <c r="E103">
         <v>1.162376332725003</v>
       </c>
       <c r="F103">
-        <v>1.17188513563472</v>
+        <v>1.190376253460302</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3634,19 +3625,19 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.145984472444953</v>
+      </c>
+      <c r="C104">
         <v>1.150533424684349</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>1.245131450827653</v>
-      </c>
-      <c r="D104">
-        <v>1.145984472444953</v>
       </c>
       <c r="E104">
         <v>1.137114590337144</v>
       </c>
       <c r="F104">
-        <v>1.160685719555133</v>
+        <v>1.176549236096365</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3660,19 +3651,19 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.134402443680794</v>
+      </c>
+      <c r="C105">
         <v>1.124009004600176</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>1.247565725413827</v>
-      </c>
-      <c r="D105">
-        <v>1.134402443680794</v>
       </c>
       <c r="E105">
         <v>1.128710018249928</v>
       </c>
       <c r="F105">
-        <v>1.149994816539519</v>
+        <v>1.168100941616804</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3686,19 +3677,19 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.139238895252641</v>
+      </c>
+      <c r="C106">
         <v>1.12753254379955</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>1.268419344368712</v>
-      </c>
-      <c r="D106">
-        <v>1.139238895252641</v>
       </c>
       <c r="E106">
         <v>1.127413312842186</v>
       </c>
       <c r="F106">
-        <v>1.155307049659898</v>
+        <v>1.175975921518469</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3712,19 +3703,19 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.149039073437699</v>
+      </c>
+      <c r="C107">
         <v>1.132719976509739</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>1.281807854592665</v>
-      </c>
-      <c r="D107">
-        <v>1.149039073437699</v>
       </c>
       <c r="E107">
         <v>1.169964460666603</v>
       </c>
       <c r="F107">
-        <v>1.175740897541828</v>
+        <v>1.196983902526623</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3738,19 +3729,19 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.139620720376734</v>
+      </c>
+      <c r="C108">
         <v>1.133600861309582</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>1.295602077247647</v>
-      </c>
-      <c r="D108">
-        <v>1.139620720376734</v>
       </c>
       <c r="E108">
         <v>1.182163096724618</v>
       </c>
       <c r="F108">
-        <v>1.179153159198175</v>
+        <v>1.204110176297521</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3764,19 +3755,19 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.126638666157567</v>
+      </c>
+      <c r="C109">
         <v>1.096701575805031</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>1.2640376501136</v>
-      </c>
-      <c r="D109">
-        <v>1.126638666157566</v>
       </c>
       <c r="E109">
         <v>1.177408510229565</v>
       </c>
       <c r="F109">
-        <v>1.161661236613921</v>
+        <v>1.183645074046886</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3790,19 +3781,19 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.082983326969581</v>
+      </c>
+      <c r="C110">
         <v>1.050308309679945</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>1.237341772151899</v>
-      </c>
-      <c r="D110">
-        <v>1.082983326969581</v>
       </c>
       <c r="E110">
         <v>1.10147920468735</v>
       </c>
       <c r="F110">
-        <v>1.109773149358201</v>
+        <v>1.134470500587372</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3816,19 +3807,19 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.097365406643757</v>
+      </c>
+      <c r="C111">
         <v>1.054810609768034</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>1.222898409607271</v>
-      </c>
-      <c r="D111">
-        <v>1.097365406643757</v>
       </c>
       <c r="E111">
         <v>1.133128421861493</v>
       </c>
       <c r="F111">
-        <v>1.123273496700534</v>
+        <v>1.143358777174696</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3842,19 +3833,19 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.117602138220695</v>
+      </c>
+      <c r="C112">
         <v>1.073504942742488</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>1.221194417396949</v>
-      </c>
-      <c r="D112">
-        <v>1.117602138220695</v>
       </c>
       <c r="E112">
         <v>1.187926231870138</v>
       </c>
       <c r="F112">
-        <v>1.150923253353679</v>
+        <v>1.16749801802188</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3868,19 +3859,19 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.138602520045819</v>
+      </c>
+      <c r="C113">
         <v>1.068121757854556</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>1.248539435248296</v>
-      </c>
-      <c r="D113">
-        <v>1.138602520045819</v>
       </c>
       <c r="E113">
         <v>1.192968975122467</v>
       </c>
       <c r="F113">
-        <v>1.163250996233019</v>
+        <v>1.180840902665416</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3894,19 +3885,19 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.168130329642357</v>
+      </c>
+      <c r="C114">
         <v>1.073896447097974</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1.24115546900357</v>
-      </c>
-      <c r="D114">
-        <v>1.168130329642357</v>
       </c>
       <c r="E114">
         <v>1.193593314763231</v>
       </c>
       <c r="F114">
-        <v>1.172927628391107</v>
+        <v>1.184611650688901</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3920,19 +3911,19 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.16125747740868</v>
+      </c>
+      <c r="C115">
         <v>1.092003523539199</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>1.253164556962025</v>
-      </c>
-      <c r="D115">
-        <v>1.16125747740868</v>
       </c>
       <c r="E115">
         <v>1.227211603112093</v>
       </c>
       <c r="F115">
-        <v>1.186873370257064</v>
+        <v>1.201578502985599</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3946,19 +3937,19 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.1415298459972</v>
+      </c>
+      <c r="C116">
         <v>1.084956445140452</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>1.254300551768906</v>
-      </c>
-      <c r="D116">
-        <v>1.1415298459972</v>
       </c>
       <c r="E116">
         <v>1.212563634617232</v>
       </c>
       <c r="F116">
-        <v>1.174524538077353</v>
+        <v>1.192567851000827</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3972,19 +3963,19 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.176785032455136</v>
+      </c>
+      <c r="C117">
         <v>1.113829891357541</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>1.28440441415125</v>
-      </c>
-      <c r="D117">
-        <v>1.176785032455136</v>
       </c>
       <c r="E117">
         <v>1.235616175199308</v>
       </c>
       <c r="F117">
-        <v>1.203792230462461</v>
+        <v>1.221011331533839</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -3998,25 +3989,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.113829891357541</v>
+        <v>1.19345806287387</v>
       </c>
       <c r="C118">
-        <v>1.28440441415125</v>
+        <v>1.10453166291475</v>
       </c>
       <c r="D118">
-        <v>1.176785032455136</v>
+        <v>1.271583901330737</v>
       </c>
       <c r="E118">
-        <v>1.235616175199308</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="F118">
-        <v>1.203792230462461</v>
+        <v>1.228462671684798</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.191676212294769</v>
+      </c>
+      <c r="C119">
+        <v>1.088871488695312</v>
+      </c>
+      <c r="D119">
+        <v>1.251703992210321</v>
+      </c>
+      <c r="E119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="F119">
+        <v>1.219919772001619</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.195367188494336</v>
+      </c>
+      <c r="C120">
+        <v>1.108055202114124</v>
+      </c>
+      <c r="D120">
+        <v>1.258763388510224</v>
+      </c>
+      <c r="E120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="F120">
+        <v>1.237232105170836</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.216240295278096</v>
+      </c>
+      <c r="C121">
+        <v>1.087305471273368</v>
+      </c>
+      <c r="D121">
+        <v>1.259169100941253</v>
+      </c>
+      <c r="E121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="F121">
+        <v>1.231729006254273</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.153748249968181</v>
+      </c>
+      <c r="C122">
+        <v>1.101399628070862</v>
+      </c>
+      <c r="D122">
+        <v>1.256978253813697</v>
+      </c>
+      <c r="E122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="F122">
+        <v>1.221272766598301</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.156930126002291</v>
+      </c>
+      <c r="C123">
+        <v>1.152980326906137</v>
+      </c>
+      <c r="D123">
+        <v>1.261603375527426</v>
+      </c>
+      <c r="E123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="F123">
+        <v>1.243789128647808</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.100420007636502</v>
+      </c>
+      <c r="C124">
+        <v>1.164333953215229</v>
+      </c>
+      <c r="D124">
+        <v>1.25365141187926</v>
+      </c>
+      <c r="E124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="F124">
+        <v>1.234011381508731</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.140384370624921</v>
+      </c>
+      <c r="C125">
+        <v>1.201428990897524</v>
+      </c>
+      <c r="D125">
+        <v>1.286838688737423</v>
+      </c>
+      <c r="E125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="F125">
+        <v>1.282454309705569</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.105892834415171</v>
+      </c>
+      <c r="C126">
+        <v>1.205539786630126</v>
+      </c>
+      <c r="D126">
+        <v>1.263550795196365</v>
+      </c>
+      <c r="E126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="F126">
+        <v>1.27713267423974</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.103347333587883</v>
+      </c>
+      <c r="C127">
+        <v>1.27415092492904</v>
+      </c>
+      <c r="D127">
+        <v>1.305988315481986</v>
+      </c>
+      <c r="E127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="F127">
+        <v>1.31032422237256</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4128,18 +4353,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4171,172 +4396,157 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>12.25669956207275</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>50.5802001953125</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>77.6234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>0.17</v>
       </c>
       <c r="J3">
-        <v>12.07</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K3">
-        <v>1.24</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L3">
-        <v>2.59</v>
-      </c>
-      <c r="M3">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="J4">
-        <v>53.46</v>
+        <v>1.256600022315979</v>
       </c>
       <c r="K4">
-        <v>12.86</v>
+        <v>12.42870044708252</v>
       </c>
       <c r="L4">
-        <v>35.09</v>
-      </c>
-      <c r="M4">
-        <v>77.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.5765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>0.33</v>
       </c>
       <c r="J5">
-        <v>133.48</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K5">
-        <v>9.199999999999999</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L5">
-        <v>4.83</v>
-      </c>
-      <c r="M5">
-        <v>38.77</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -4354,19 +4564,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4374,19 +4584,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4394,19 +4604,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4414,19 +4624,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4434,19 +4644,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4454,19 +4664,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4474,19 +4684,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4494,19 +4704,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4514,19 +4724,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4534,19 +4744,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4554,19 +4764,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4574,19 +4784,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4594,19 +4804,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4614,19 +4824,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4634,19 +4844,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4654,19 +4864,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4674,19 +4884,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4694,19 +4904,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4714,19 +4924,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4734,19 +4944,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4754,19 +4964,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +4986,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4784,109 +4994,87 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
